--- a/pagamentos.xlsx
+++ b/pagamentos.xlsx
@@ -468,7 +468,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1">
-        <v>9085370698</v>
+        <v>70521758432</v>
       </c>
       <c r="B2" s="1">
         <v>50</v>
@@ -484,7 +484,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1">
-        <v>2046034040</v>
+        <v>34962745816</v>
       </c>
       <c r="B3" s="1">
         <v>50</v>
@@ -500,7 +500,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1">
-        <v>34107431894</v>
+        <v>80714749087</v>
       </c>
       <c r="B4" s="1">
         <v>50</v>
@@ -516,7 +516,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1">
-        <v>45107121896</v>
+        <v>11583705988</v>
       </c>
       <c r="B5" s="1">
         <v>50</v>
@@ -532,7 +532,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1">
-        <v>11184648182</v>
+        <v>13948855986</v>
       </c>
       <c r="B6" s="1">
         <v>50</v>
@@ -548,7 +548,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1">
-        <v>60845612336</v>
+        <v>6078484214</v>
       </c>
       <c r="B7" s="1">
         <v>50</v>
@@ -564,7 +564,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1">
-        <v>22941697861</v>
+        <v>1205261230</v>
       </c>
       <c r="B8" s="1">
         <v>50</v>
@@ -580,7 +580,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1">
-        <v>45136073861</v>
+        <v>6534084120</v>
       </c>
       <c r="B9" s="1">
         <v>50</v>
@@ -596,7 +596,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1">
-        <v>8440407700</v>
+        <v>86471094574</v>
       </c>
       <c r="B10" s="1">
         <v>50</v>
@@ -612,7 +612,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1">
-        <v>528563050</v>
+        <v>2544577037</v>
       </c>
       <c r="B11" s="1">
         <v>50</v>
@@ -628,7 +628,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1">
-        <v>11991733470</v>
+        <v>93160992268</v>
       </c>
       <c r="B12" s="1">
         <v>50</v>
@@ -644,10 +644,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1">
-        <v>3400747521</v>
+        <v>7885691551</v>
       </c>
       <c r="B13" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="5"/>
@@ -660,10 +660,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1">
-        <v>7885691551</v>
+        <v>3240752000</v>
       </c>
       <c r="B14" s="1">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="5"/>
@@ -676,7 +676,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1">
-        <v>6928877928</v>
+        <v>48842999814</v>
       </c>
       <c r="B15" s="1">
         <v>50</v>
@@ -692,7 +692,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1">
-        <v>7262424971</v>
+        <v>4314938048</v>
       </c>
       <c r="B16" s="1">
         <v>50</v>
@@ -708,7 +708,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1">
-        <v>10274356961</v>
+        <v>40940134829</v>
       </c>
       <c r="B17" s="1">
         <v>50</v>
@@ -724,7 +724,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1">
-        <v>321886097</v>
+        <v>20285721755</v>
       </c>
       <c r="B18" s="1">
         <v>50</v>
@@ -740,7 +740,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1">
-        <v>13077579790</v>
+        <v>2761594037</v>
       </c>
       <c r="B19" s="1">
         <v>50</v>
@@ -756,7 +756,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1">
-        <v>12536451674</v>
+        <v>42655489896</v>
       </c>
       <c r="B20" s="1">
         <v>50</v>
@@ -772,10 +772,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1">
-        <v>6499950238</v>
+        <v>3531711075</v>
       </c>
       <c r="B21" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="5"/>
@@ -788,7 +788,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1">
-        <v>6643815703</v>
+        <v>40572703880</v>
       </c>
       <c r="B22" s="1">
         <v>50</v>
@@ -804,7 +804,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1">
-        <v>6221727197</v>
+        <v>3643338040</v>
       </c>
       <c r="B23" s="1">
         <v>50</v>
@@ -820,7 +820,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1">
-        <v>70202608107</v>
+        <v>54402697204</v>
       </c>
       <c r="B24" s="1">
         <v>50</v>
@@ -836,7 +836,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1">
-        <v>41936366827</v>
+        <v>9809191936</v>
       </c>
       <c r="B25" s="1">
         <v>50</v>
@@ -852,7 +852,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1">
-        <v>11813313660</v>
+        <v>28330713881</v>
       </c>
       <c r="B26" s="1">
         <v>50</v>
@@ -868,7 +868,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1">
-        <v>4093373310</v>
+        <v>8998997495</v>
       </c>
       <c r="B27" s="1">
         <v>50</v>
@@ -884,7 +884,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1">
-        <v>10108082490</v>
+        <v>2264002042</v>
       </c>
       <c r="B28" s="1">
         <v>50</v>
@@ -900,7 +900,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1">
-        <v>71614150206</v>
+        <v>14616040605</v>
       </c>
       <c r="B29" s="1">
         <v>50</v>
@@ -916,7 +916,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1">
-        <v>24473664856</v>
+        <v>2632235235</v>
       </c>
       <c r="B30" s="1">
         <v>50</v>
@@ -932,7 +932,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1">
-        <v>42185332880</v>
+        <v>9728037937</v>
       </c>
       <c r="B31" s="1">
         <v>50</v>
@@ -948,7 +948,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1">
-        <v>71319551246</v>
+        <v>7692824312</v>
       </c>
       <c r="B32" s="1">
         <v>50</v>
@@ -964,7 +964,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1">
-        <v>4169355326</v>
+        <v>70002997622</v>
       </c>
       <c r="B33" s="1">
         <v>50</v>
@@ -980,7 +980,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1">
-        <v>44113658803</v>
+        <v>40909250880</v>
       </c>
       <c r="B34" s="1">
         <v>50</v>
@@ -996,7 +996,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1">
-        <v>4867120103</v>
+        <v>7310092406</v>
       </c>
       <c r="B35" s="1">
         <v>50</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1">
-        <v>4128090441</v>
+        <v>17410127759</v>
       </c>
       <c r="B36" s="1">
         <v>50</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1">
-        <v>11835512585</v>
+        <v>6779634166</v>
       </c>
       <c r="B37" s="1">
         <v>50</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1">
-        <v>381316092</v>
+        <v>41941017827</v>
       </c>
       <c r="B38" s="1">
         <v>50</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1">
-        <v>1646499646</v>
+        <v>9273693970</v>
       </c>
       <c r="B39" s="1">
         <v>50</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1">
-        <v>3819245308</v>
+        <v>48584354824</v>
       </c>
       <c r="B40" s="1">
         <v>50</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1">
-        <v>2824197137</v>
+        <v>13000547789</v>
       </c>
       <c r="B41" s="1">
         <v>50</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1">
-        <v>2506879250</v>
+        <v>71614150206</v>
       </c>
       <c r="B42" s="1">
         <v>50</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1">
-        <v>5307453213</v>
+        <v>8898891989</v>
       </c>
       <c r="B43" s="1">
         <v>50</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1">
-        <v>34182720881</v>
+        <v>41673389805</v>
       </c>
       <c r="B44" s="1">
         <v>50</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1">
-        <v>5480877330</v>
+        <v>47961089802</v>
       </c>
       <c r="B45" s="1">
         <v>50</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1">
-        <v>30950259802</v>
+        <v>13040232738</v>
       </c>
       <c r="B46" s="1">
         <v>50</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1">
-        <v>85352756068</v>
+        <v>853843058</v>
       </c>
       <c r="B47" s="1">
         <v>50</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1">
-        <v>3288256118</v>
+        <v>13944549961</v>
       </c>
       <c r="B48" s="1">
         <v>50</v>
@@ -1220,10 +1220,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1">
-        <v>2770983008</v>
+        <v>1802546260</v>
       </c>
       <c r="B49" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="5"/>
@@ -1236,7 +1236,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1">
-        <v>80085427993</v>
+        <v>1903686083</v>
       </c>
       <c r="B50" s="1">
         <v>50</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1">
-        <v>29844259878</v>
+        <v>3600073095</v>
       </c>
       <c r="B51" s="1">
         <v>50</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1">
-        <v>9139862917</v>
+        <v>21277858861</v>
       </c>
       <c r="B52" s="1">
         <v>50</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1">
-        <v>5652974141</v>
+        <v>12077472707</v>
       </c>
       <c r="B53" s="1">
         <v>50</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1">
-        <v>5517837026</v>
+        <v>3270469373</v>
       </c>
       <c r="B54" s="1">
         <v>50</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1">
-        <v>7177936645</v>
+        <v>3214604139</v>
       </c>
       <c r="B55" s="1">
         <v>50</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1">
-        <v>10411536605</v>
+        <v>9777337698</v>
       </c>
       <c r="B56" s="1">
         <v>50</v>
@@ -1347,8 +1347,12 @@
       <c r="J56" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="A57" s="1">
+        <v>70199258635</v>
+      </c>
+      <c r="B57" s="1">
+        <v>50</v>
+      </c>
       <c r="C57" s="2"/>
       <c r="D57" s="5"/>
       <c r="E57" s="2"/>
@@ -1359,8 +1363,12 @@
       <c r="J57" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="A58" s="1">
+        <v>7157866951</v>
+      </c>
+      <c r="B58" s="1">
+        <v>100</v>
+      </c>
       <c r="C58" s="2"/>
       <c r="D58" s="5"/>
       <c r="E58" s="2"/>
@@ -1371,8 +1379,12 @@
       <c r="J58" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="A59" s="1">
+        <v>86478626512</v>
+      </c>
+      <c r="B59" s="1">
+        <v>50</v>
+      </c>
       <c r="C59" s="2"/>
       <c r="D59" s="5"/>
       <c r="E59" s="2"/>
@@ -1383,8 +1395,12 @@
       <c r="J59" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="A60" s="1">
+        <v>3857739002</v>
+      </c>
+      <c r="B60" s="1">
+        <v>50</v>
+      </c>
       <c r="C60" s="2"/>
       <c r="D60" s="5"/>
       <c r="E60" s="2"/>
@@ -1395,8 +1411,12 @@
       <c r="J60" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="A61" s="1">
+        <v>27066128869</v>
+      </c>
+      <c r="B61" s="1">
+        <v>50</v>
+      </c>
       <c r="C61" s="2"/>
       <c r="D61" s="5"/>
       <c r="E61" s="2"/>
@@ -1407,8 +1427,12 @@
       <c r="J61" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="A62" s="1">
+        <v>70701810270</v>
+      </c>
+      <c r="B62" s="1">
+        <v>50</v>
+      </c>
       <c r="C62" s="2"/>
       <c r="D62" s="5"/>
       <c r="E62" s="2"/>
@@ -1419,8 +1443,12 @@
       <c r="J62" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="A63" s="1">
+        <v>10772727660</v>
+      </c>
+      <c r="B63" s="1">
+        <v>50</v>
+      </c>
       <c r="C63" s="2"/>
       <c r="D63" s="5"/>
       <c r="E63" s="2"/>
@@ -1431,8 +1459,12 @@
       <c r="J63" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="A64" s="1">
+        <v>4604323461</v>
+      </c>
+      <c r="B64" s="1">
+        <v>150</v>
+      </c>
       <c r="C64" s="2"/>
       <c r="D64" s="5"/>
       <c r="E64" s="2"/>
@@ -1443,8 +1475,12 @@
       <c r="J64" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="A65" s="1">
+        <v>4999367955</v>
+      </c>
+      <c r="B65" s="1">
+        <v>50</v>
+      </c>
       <c r="C65" s="2"/>
       <c r="D65" s="5"/>
       <c r="E65" s="2"/>
@@ -1455,8 +1491,12 @@
       <c r="J65" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="A66" s="1">
+        <v>4324232067</v>
+      </c>
+      <c r="B66" s="1">
+        <v>150</v>
+      </c>
       <c r="C66" s="2"/>
       <c r="D66" s="5"/>
       <c r="E66" s="2"/>
@@ -1467,8 +1507,12 @@
       <c r="J66" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="A67" s="1">
+        <v>3819245308</v>
+      </c>
+      <c r="B67" s="1">
+        <v>50</v>
+      </c>
       <c r="C67" s="2"/>
       <c r="D67" s="5"/>
       <c r="E67" s="2"/>
@@ -1479,8 +1523,12 @@
       <c r="J67" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="A68" s="1">
+        <v>22660357897</v>
+      </c>
+      <c r="B68" s="1">
+        <v>50</v>
+      </c>
       <c r="C68" s="2"/>
       <c r="D68" s="5"/>
       <c r="E68" s="2"/>
@@ -1491,8 +1539,12 @@
       <c r="J68" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="A69" s="1">
+        <v>15929261776</v>
+      </c>
+      <c r="B69" s="1">
+        <v>50</v>
+      </c>
       <c r="C69" s="2"/>
       <c r="D69" s="5"/>
       <c r="E69" s="2"/>
@@ -1503,8 +1555,12 @@
       <c r="J69" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="A70" s="1">
+        <v>7899891310</v>
+      </c>
+      <c r="B70" s="1">
+        <v>50</v>
+      </c>
       <c r="C70" s="2"/>
       <c r="D70" s="5"/>
       <c r="E70" s="2"/>
@@ -1515,8 +1571,12 @@
       <c r="J70" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+      <c r="A71" s="1">
+        <v>2634607970</v>
+      </c>
+      <c r="B71" s="1">
+        <v>50</v>
+      </c>
       <c r="C71" s="2"/>
       <c r="D71" s="5"/>
       <c r="E71" s="2"/>
@@ -1527,8 +1587,12 @@
       <c r="J71" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+      <c r="A72" s="1">
+        <v>4861788110</v>
+      </c>
+      <c r="B72" s="1">
+        <v>60</v>
+      </c>
       <c r="C72" s="2"/>
       <c r="D72" s="5"/>
       <c r="E72" s="2"/>
@@ -1539,8 +1603,12 @@
       <c r="J72" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+      <c r="A73" s="1">
+        <v>45929279829</v>
+      </c>
+      <c r="B73" s="1">
+        <v>50</v>
+      </c>
       <c r="C73" s="2"/>
       <c r="D73" s="5"/>
       <c r="E73" s="2"/>
@@ -1551,8 +1619,12 @@
       <c r="J73" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="A74" s="1">
+        <v>6565261148</v>
+      </c>
+      <c r="B74" s="1">
+        <v>50</v>
+      </c>
       <c r="C74" s="2"/>
       <c r="D74" s="5"/>
       <c r="E74" s="2"/>
@@ -1563,8 +1635,12 @@
       <c r="J74" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="A75" s="1">
+        <v>9075618530</v>
+      </c>
+      <c r="B75" s="1">
+        <v>50</v>
+      </c>
       <c r="C75" s="2"/>
       <c r="D75" s="5"/>
       <c r="E75" s="2"/>
@@ -1575,8 +1651,12 @@
       <c r="J75" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="A76" s="1">
+        <v>9211149908</v>
+      </c>
+      <c r="B76" s="1">
+        <v>50</v>
+      </c>
       <c r="C76" s="2"/>
       <c r="D76" s="5"/>
       <c r="E76" s="2"/>
@@ -1587,8 +1667,12 @@
       <c r="J76" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="A77" s="1">
+        <v>55122001863</v>
+      </c>
+      <c r="B77" s="1">
+        <v>50</v>
+      </c>
       <c r="C77" s="2"/>
       <c r="D77" s="5"/>
       <c r="E77" s="2"/>
@@ -1599,8 +1683,12 @@
       <c r="J77" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="A78" s="1">
+        <v>3329367164</v>
+      </c>
+      <c r="B78" s="1">
+        <v>50</v>
+      </c>
       <c r="C78" s="2"/>
       <c r="D78" s="5"/>
       <c r="E78" s="2"/>
@@ -1611,8 +1699,12 @@
       <c r="J78" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+      <c r="A79" s="1">
+        <v>6099204130</v>
+      </c>
+      <c r="B79" s="1">
+        <v>50</v>
+      </c>
       <c r="C79" s="2"/>
       <c r="D79" s="5"/>
       <c r="E79" s="2"/>
@@ -1623,8 +1715,12 @@
       <c r="J79" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+      <c r="A80" s="1">
+        <v>8565683923</v>
+      </c>
+      <c r="B80" s="1">
+        <v>50</v>
+      </c>
       <c r="C80" s="2"/>
       <c r="D80" s="5"/>
       <c r="E80" s="2"/>
@@ -1635,8 +1731,12 @@
       <c r="J80" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+      <c r="A81" s="1">
+        <v>1016294000</v>
+      </c>
+      <c r="B81" s="1">
+        <v>100</v>
+      </c>
       <c r="C81" s="2"/>
       <c r="D81" s="5"/>
       <c r="E81" s="2"/>
@@ -1647,8 +1747,12 @@
       <c r="J81" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="A82" s="1">
+        <v>11222538423</v>
+      </c>
+      <c r="B82" s="1">
+        <v>50</v>
+      </c>
       <c r="C82" s="2"/>
       <c r="D82" s="5"/>
       <c r="E82" s="2"/>
@@ -1659,8 +1763,12 @@
       <c r="J82" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+      <c r="A83" s="1">
+        <v>44287953860</v>
+      </c>
+      <c r="B83" s="1">
+        <v>50</v>
+      </c>
       <c r="C83" s="2"/>
       <c r="D83" s="5"/>
       <c r="E83" s="2"/>
@@ -1671,8 +1779,12 @@
       <c r="J83" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+      <c r="A84" s="1">
+        <v>2687022179</v>
+      </c>
+      <c r="B84" s="1">
+        <v>50</v>
+      </c>
       <c r="C84" s="2"/>
       <c r="D84" s="5"/>
       <c r="E84" s="2"/>
@@ -1683,8 +1795,12 @@
       <c r="J84" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+      <c r="A85" s="1">
+        <v>4313311548</v>
+      </c>
+      <c r="B85" s="1">
+        <v>50</v>
+      </c>
       <c r="C85" s="2"/>
       <c r="D85" s="5"/>
       <c r="E85" s="2"/>
@@ -1695,8 +1811,12 @@
       <c r="J85" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+      <c r="A86" s="1">
+        <v>6284467990</v>
+      </c>
+      <c r="B86" s="1">
+        <v>50</v>
+      </c>
       <c r="C86" s="2"/>
       <c r="D86" s="5"/>
       <c r="E86" s="2"/>
@@ -1707,8 +1827,12 @@
       <c r="J86" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+      <c r="A87" s="1">
+        <v>33640239806</v>
+      </c>
+      <c r="B87" s="1">
+        <v>50</v>
+      </c>
       <c r="C87" s="2"/>
       <c r="D87" s="5"/>
       <c r="E87" s="2"/>
@@ -1719,8 +1843,12 @@
       <c r="J87" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+      <c r="A88" s="1">
+        <v>3713306370</v>
+      </c>
+      <c r="B88" s="1">
+        <v>50</v>
+      </c>
       <c r="C88" s="2"/>
       <c r="D88" s="5"/>
       <c r="E88" s="2"/>
@@ -1731,8 +1859,12 @@
       <c r="J88" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+      <c r="A89" s="1">
+        <v>3549005954</v>
+      </c>
+      <c r="B89" s="1">
+        <v>50</v>
+      </c>
       <c r="C89" s="2"/>
       <c r="D89" s="5"/>
       <c r="E89" s="2"/>
@@ -1743,8 +1875,12 @@
       <c r="J89" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+      <c r="A90" s="1">
+        <v>5193161189</v>
+      </c>
+      <c r="B90" s="1">
+        <v>50</v>
+      </c>
       <c r="C90" s="2"/>
       <c r="D90" s="5"/>
       <c r="E90" s="2"/>
@@ -1755,8 +1891,12 @@
       <c r="J90" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+      <c r="A91" s="1">
+        <v>12875459716</v>
+      </c>
+      <c r="B91" s="1">
+        <v>50</v>
+      </c>
       <c r="C91" s="2"/>
       <c r="D91" s="5"/>
       <c r="E91" s="2"/>
@@ -1767,8 +1907,12 @@
       <c r="J91" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+      <c r="A92" s="1">
+        <v>12191006680</v>
+      </c>
+      <c r="B92" s="1">
+        <v>50</v>
+      </c>
       <c r="C92" s="2"/>
       <c r="D92" s="5"/>
       <c r="E92" s="2"/>
@@ -1779,8 +1923,12 @@
       <c r="J92" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+      <c r="A93" s="1">
+        <v>2033731030</v>
+      </c>
+      <c r="B93" s="1">
+        <v>50</v>
+      </c>
       <c r="C93" s="2"/>
       <c r="D93" s="5"/>
       <c r="E93" s="2"/>
@@ -1791,8 +1939,12 @@
       <c r="J93" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+      <c r="A94" s="1">
+        <v>5438693005</v>
+      </c>
+      <c r="B94" s="1">
+        <v>50</v>
+      </c>
       <c r="C94" s="2"/>
       <c r="D94" s="5"/>
       <c r="E94" s="2"/>
@@ -1803,8 +1955,12 @@
       <c r="J94" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+      <c r="A95" s="1">
+        <v>45727955840</v>
+      </c>
+      <c r="B95" s="1">
+        <v>50</v>
+      </c>
       <c r="C95" s="2"/>
       <c r="D95" s="5"/>
       <c r="E95" s="2"/>
@@ -1815,8 +1971,12 @@
       <c r="J95" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+      <c r="A96" s="1">
+        <v>37153016864</v>
+      </c>
+      <c r="B96" s="1">
+        <v>50</v>
+      </c>
       <c r="C96" s="2"/>
       <c r="D96" s="5"/>
       <c r="E96" s="2"/>
@@ -1827,8 +1987,12 @@
       <c r="J96" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+      <c r="A97" s="1">
+        <v>14413119630</v>
+      </c>
+      <c r="B97" s="1">
+        <v>50</v>
+      </c>
       <c r="C97" s="2"/>
       <c r="D97" s="5"/>
       <c r="E97" s="2"/>
@@ -1839,8 +2003,12 @@
       <c r="J97" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+      <c r="A98" s="1">
+        <v>34714408879</v>
+      </c>
+      <c r="B98" s="1">
+        <v>50</v>
+      </c>
       <c r="C98" s="2"/>
       <c r="D98" s="5"/>
       <c r="E98" s="2"/>
@@ -1851,8 +2019,12 @@
       <c r="J98" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+      <c r="A99" s="1">
+        <v>48850317883</v>
+      </c>
+      <c r="B99" s="1">
+        <v>50</v>
+      </c>
       <c r="C99" s="2"/>
       <c r="D99" s="5"/>
       <c r="E99" s="2"/>
@@ -1863,8 +2035,12 @@
       <c r="J99" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+      <c r="A100" s="1">
+        <v>12814201905</v>
+      </c>
+      <c r="B100" s="1">
+        <v>50</v>
+      </c>
       <c r="C100" s="2"/>
       <c r="D100" s="5"/>
       <c r="E100" s="2"/>
@@ -1875,8 +2051,12 @@
       <c r="J100" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+      <c r="A101" s="1">
+        <v>48041841805</v>
+      </c>
+      <c r="B101" s="1">
+        <v>50</v>
+      </c>
       <c r="C101" s="2"/>
       <c r="D101" s="5"/>
       <c r="E101" s="2"/>
@@ -1887,8 +2067,12 @@
       <c r="J101" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+      <c r="A102" s="1">
+        <v>4376236292</v>
+      </c>
+      <c r="B102" s="1">
+        <v>100</v>
+      </c>
       <c r="C102" s="2"/>
       <c r="D102" s="5"/>
       <c r="E102" s="2"/>
@@ -1899,8 +2083,12 @@
       <c r="J102" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+      <c r="A103" s="1">
+        <v>3471980156</v>
+      </c>
+      <c r="B103" s="1">
+        <v>50</v>
+      </c>
       <c r="C103" s="2"/>
       <c r="D103" s="5"/>
       <c r="E103" s="2"/>
@@ -1911,8 +2099,12 @@
       <c r="J103" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+      <c r="A104" s="1">
+        <v>10224869426</v>
+      </c>
+      <c r="B104" s="1">
+        <v>50</v>
+      </c>
       <c r="C104" s="2"/>
       <c r="D104" s="5"/>
       <c r="E104" s="2"/>
@@ -1923,8 +2115,12 @@
       <c r="J104" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+      <c r="A105" s="1">
+        <v>4717319192</v>
+      </c>
+      <c r="B105" s="1">
+        <v>100</v>
+      </c>
       <c r="C105" s="2"/>
       <c r="D105" s="5"/>
       <c r="E105" s="2"/>
